--- a/12_KS_연도별_보고서작성_큐/Data/Config.xlsx
+++ b/12_KS_연도별_보고서작성_큐/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\12_KS_연도별_보고서작성_큐\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37655E15-7DCF-4042-8871-EF4FF4143CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5A9852-8FAD-4D77-97AD-78F21DE7B318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5835" yWindow="-21270" windowWidth="15750" windowHeight="17055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6555" yWindow="-23310" windowWidth="17220" windowHeight="14040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="155">
   <si>
     <t>Name</t>
   </si>
@@ -177,11 +177,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>오케스트레이터의 큐아이템 사용 여부 (TRUE or FALSE)
-트랜잭션 소스로 사용되는 데이터의 종류 (오케스트레이터의 큐, 스프레드시트, 데이터베이스, 사서함, 웹API) 중에서 큐 이외의 자료를 사용시에는 FALSE 설정</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>스프레드시트의 시트명 (트랜잭션 데이터)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -623,6 +618,16 @@
 {연도}년도 KS 연도별 보고서 작성 대상이 존재하지 않아 처리가 종료되었음을 알려드립니다.
 감사합니다.</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACME_WorkItems</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>오케스트레이터의 큐아이템 사용 여부 (TRUE or FALSE)
+트랜잭션 소스로 사용되는 데이터의 종류 (오케스트레이터의 큐, 스프레드시트, 데이터베이스, 사서함, 웹API) 중에서 큐 이외의 자료를 사용시에는 FALSE 설정
+※ 자산(Assets) 시트에서 설정시 Assets설정값이 최우선</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -680,7 +685,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -705,6 +710,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -718,7 +729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -757,6 +768,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1080,7 +1097,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1127,22 +1144,25 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -1150,7 +1170,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>28</v>
@@ -1169,242 +1189,242 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33">
       <c r="A10" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" s="10" t="str">
         <f>$B$17 &amp; "\" &amp; $B$20</f>
         <v>Data\Temp\Report-{TaxID}-{Year}-{Month}.csv</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B26" s="10" t="str">
         <f>$B$16 &amp; "\" &amp; $B$21</f>
         <v>Data\Output\Yearly-Report-{Year}-{TaxID}.xlsx</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B27" s="10" t="str">
         <f>$B$15 &amp; "\" &amp; $B$22</f>
         <v>Data\Input\KS_Vendor_Information_Template.xlsx</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B28" s="10" t="str">
         <f>$B$16 &amp; "\" &amp; $B$23</f>
         <v>Data\Output\KS Vendor Information {Year} Yearly Report.xlsx</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="C31" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1423,7 +1443,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1469,81 +1489,81 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="49.5">
-      <c r="A2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="5">
+    <row r="2" spans="1:26" ht="82.5">
+      <c r="A2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="5" t="b">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="49.5">
       <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="49.5">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="49.5">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="4" t="s">
+    <row r="7" spans="1:26">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="4" t="s">
+    <row r="8" spans="1:26">
+      <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B8" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="33">
-      <c r="A7" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="66">
-      <c r="A9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="5" t="b">
+    <row r="10" spans="1:26" ht="33">
+      <c r="A10" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="5">
         <v>1</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="49.5">
-      <c r="A10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="5" t="b">
-        <v>0</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1562,7 +1582,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1749,109 +1769,109 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="5">
         <v>587</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="99">
       <c r="A11" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="99">
       <c r="A12" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1870,7 +1890,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1898,68 +1918,68 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>51</v>
+      <c r="A4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2008,135 +2028,135 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="13" customFormat="1">
       <c r="A15" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="13" customFormat="1">
       <c r="A16" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="13" customFormat="1">
       <c r="A17" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="13" customFormat="1">
       <c r="A18" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/12_KS_연도별_보고서작성_큐/Data/Config.xlsx
+++ b/12_KS_연도별_보고서작성_큐/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\12_KS_연도별_보고서작성_큐\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5A9852-8FAD-4D77-97AD-78F21DE7B318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CE8C5F-0F8E-45AF-910C-F273A56CFD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6555" yWindow="-23310" windowWidth="17220" windowHeight="14040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="159">
   <si>
     <t>Name</t>
   </si>
@@ -167,12 +167,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>트랜잭션 재시도 횟수 (0이상의 정수값)
-시스템에러 발생시에만 해당 트랜잭션에 대해서 재시도 실시
-※ 오케스트레이터 대기열로 작동시 0 설정, 그 외는 1 이상으로 설정</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UseQueue</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -627,6 +621,28 @@
     <t>오케스트레이터의 큐아이템 사용 여부 (TRUE or FALSE)
 트랜잭션 소스로 사용되는 데이터의 종류 (오케스트레이터의 큐, 스프레드시트, 데이터베이스, 사서함, 웹API) 중에서 큐 이외의 자료를 사용시에는 FALSE 설정
 ※ 자산(Assets) 시트에서 설정시 Assets설정값이 최우선</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OrchestratorStorageBuckets</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>오케스트레이터의 저장소 이름, 로컬에 저장시 빈값 설정</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Account_ACME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mail_dexter_naver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>트랜잭션 재시도 횟수 (1이상의 정수값)
+시스템에러 발생시에만 해당 트랜잭션에 대해서 재시도 실시
+※ 오케스트레이터 큐아이템 사용시 0으로 자동 설정</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1091,13 +1107,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z35"/>
+  <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1145,13 +1161,13 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -1159,272 +1175,280 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="4" t="s">
+    <row r="7" spans="1:26">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="33">
-      <c r="A10" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="6" t="s">
+    <row r="9" spans="1:26">
+      <c r="A9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="33">
+      <c r="A12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>43</v>
+      <c r="C12" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="4" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="4" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>124</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>133</v>
+        <v>56</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="10" t="str">
-        <f>$B$17 &amp; "\" &amp; $B$20</f>
-        <v>Data\Temp\Report-{TaxID}-{Year}-{Month}.csv</v>
+        <v>70</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="10" t="str">
-        <f>$B$16 &amp; "\" &amp; $B$21</f>
-        <v>Data\Output\Yearly-Report-{Year}-{TaxID}.xlsx</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B27" s="10" t="str">
-        <f>$B$15 &amp; "\" &amp; $B$22</f>
-        <v>Data\Input\KS_Vendor_Information_Template.xlsx</v>
+        <f>$B$19 &amp; "\" &amp; $B$22</f>
+        <v>Data\Temp\Report-{TaxID}-{Year}-{Month}.csv</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B28" s="10" t="str">
-        <f>$B$16 &amp; "\" &amp; $B$23</f>
-        <v>Data\Output\KS Vendor Information {Year} Yearly Report.xlsx</v>
+        <f>$B$18 &amp; "\" &amp; $B$23</f>
+        <v>Data\Output\Yearly-Report-{Year}-{TaxID}.xlsx</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="10" t="str">
+        <f>$B$17 &amp; "\" &amp; $B$24</f>
+        <v>Data\Input\KS_Vendor_Information_Template.xlsx</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
+      </c>
+      <c r="B30" s="10" t="str">
+        <f>$B$18 &amp; "\" &amp; $B$25</f>
+        <v>Data\Output\KS Vendor Information {Year} Yearly Report.xlsx</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>114</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1491,13 +1515,13 @@
     </row>
     <row r="2" spans="1:26" ht="82.5">
       <c r="A2" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="5" t="b">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="49.5">
@@ -1519,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="49.5">
@@ -1530,7 +1554,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1557,13 +1581,13 @@
     </row>
     <row r="10" spans="1:26" ht="33">
       <c r="A10" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1582,7 +1606,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1769,109 +1793,109 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="5">
         <v>587</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="99">
       <c r="A11" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="99">
       <c r="A12" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1884,13 +1908,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1918,68 +1942,79 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2028,135 +2063,135 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="13" customFormat="1">
       <c r="A15" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="13" customFormat="1">
       <c r="A16" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="13" customFormat="1">
       <c r="A17" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="13" customFormat="1">
       <c r="A18" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/12_KS_연도별_보고서작성_큐/Data/Config.xlsx
+++ b/12_KS_연도별_보고서작성_큐/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\12_KS_연도별_보고서작성_큐\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CE8C5F-0F8E-45AF-910C-F273A56CFD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD9E99E-73FA-4F8B-BBE0-3CAE84762B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6555" yWindow="-23310" windowWidth="17220" windowHeight="14040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5550" yWindow="-16395" windowWidth="16320" windowHeight="13920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="164">
   <si>
     <t>Name</t>
   </si>
@@ -198,17 +198,10 @@
     <t>Account_ACME</t>
   </si>
   <si>
-    <t>useAssets</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Mail_jwlee</t>
   </si>
   <si>
     <t>Mail_dexter_gmail</t>
-  </si>
-  <si>
-    <t>Mail_dexter_naver</t>
   </si>
   <si>
     <t>Report-{TaxID}-{Year}-{Month}.csv</t>
@@ -628,10 +621,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>오케스트레이터의 저장소 이름, 로컬에 저장시 빈값 설정</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Account_ACME</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -643,6 +632,38 @@
     <t>트랜잭션 재시도 횟수 (1이상의 정수값)
 시스템에러 발생시에만 해당 트랜잭션에 대해서 재시도 실시
 ※ 오케스트레이터 큐아이템 사용시 0으로 자동 설정</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StorageBuckets</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>오케스트레이터 자격증명 (ACME )</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>오케스트레이터 자격증명 (이메일 )</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>오케스트레이터의 큐아이템 사용 여부 (TRUE or FALSE)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>오케스트레이터의 저장소(Storage Buckets) 이름</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>이메일 송신자</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>이메일 수신자</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>이메일</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1107,13 +1128,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1175,225 +1196,234 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>155</v>
+    <row r="5" spans="1:26">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="8" t="s">
-        <v>48</v>
+        <v>71</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="33">
+      <c r="A11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="33">
-      <c r="A12" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>76</v>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>72</v>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="10" t="str">
+        <f>$B$18 &amp; "\" &amp; $B$21</f>
+        <v>Data\Temp\Report-{TaxID}-{Year}-{Month}.csv</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27" s="10" t="str">
-        <f>$B$19 &amp; "\" &amp; $B$22</f>
-        <v>Data\Temp\Report-{TaxID}-{Year}-{Month}.csv</v>
+        <f>$B$17 &amp; "\" &amp; $B$22</f>
+        <v>Data\Output\Yearly-Report-{Year}-{TaxID}.xlsx</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B28" s="10" t="str">
-        <f>$B$18 &amp; "\" &amp; $B$23</f>
-        <v>Data\Output\Yearly-Report-{Year}-{TaxID}.xlsx</v>
+        <f>$B$16 &amp; "\" &amp; $B$23</f>
+        <v>Data\Input\KS_Vendor_Information_Template.xlsx</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="4" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="B29" s="10" t="str">
         <f>$B$17 &amp; "\" &amp; $B$24</f>
-        <v>Data\Input\KS_Vendor_Information_Template.xlsx</v>
+        <v>Data\Output\KS Vendor Information {Year} Yearly Report.xlsx</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="10" t="str">
-        <f>$B$18 &amp; "\" &amp; $B$25</f>
-        <v>Data\Output\KS Vendor Information {Year} Yearly Report.xlsx</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1401,54 +1431,43 @@
         <v>104</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>107</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="4" t="s">
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1467,7 +1486,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1521,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="49.5">
@@ -1543,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="49.5">
@@ -1554,7 +1573,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1581,13 +1600,13 @@
     </row>
     <row r="10" spans="1:26" ht="33">
       <c r="A10" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1745,7 +1764,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1793,109 +1812,109 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" s="5">
         <v>587</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="99">
       <c r="A11" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="99">
       <c r="A12" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>151</v>
-      </c>
       <c r="C12" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1908,13 +1927,159 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="14.42578125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C0CFF8-1860-41AE-8401-CF0C6C0583A2}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+  </sheetPr>
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1942,24 +2107,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>47</v>
       </c>
+      <c r="D2" s="8" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>47</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1972,32 +2143,41 @@
       <c r="C4" s="8" t="s">
         <v>47</v>
       </c>
+      <c r="D4" s="8" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>47</v>
       </c>
+      <c r="D5" s="8" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>47</v>
       </c>
+      <c r="D6" s="8" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="8" t="s">
-        <v>50</v>
+      <c r="A7" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>50</v>
@@ -2005,193 +2185,89 @@
       <c r="C7" s="8" t="s">
         <v>47</v>
       </c>
+      <c r="D7" s="8" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>154</v>
+      <c r="A8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C0CFF8-1860-41AE-8401-CF0C6C0583A2}">
-  <sheetPr>
-    <tabColor theme="0" tint="-0.34998626667073579"/>
-  </sheetPr>
-  <dimension ref="A1:D18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="25.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="14.42578125" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="20.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="4"/>
+      <c r="D8" s="8" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="13" customFormat="1">
-      <c r="A15" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>138</v>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="13" customFormat="1">
       <c r="A16" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="13" customFormat="1">
       <c r="A17" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="13" customFormat="1">
       <c r="A18" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="13" customFormat="1">
+      <c r="A19" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>138</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/12_KS_연도별_보고서작성_큐/Data/Config.xlsx
+++ b/12_KS_연도별_보고서작성_큐/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\12_KS_연도별_보고서작성_큐\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD9E99E-73FA-4F8B-BBE0-3CAE84762B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A7E200-6D0C-4DD6-8739-F6618ED053D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5550" yWindow="-16395" windowWidth="16320" windowHeight="13920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="164">
   <si>
     <t>Name</t>
   </si>
@@ -1128,13 +1128,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1202,271 +1202,282 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>28</v>
+    <row r="4" spans="1:26">
+      <c r="A4" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="8" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="33">
-      <c r="A11" s="4" t="s">
+    <row r="10" spans="1:26">
+      <c r="A10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="33">
+      <c r="A12" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:26">
+      <c r="A13" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:26">
+      <c r="A15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="10" t="str">
-        <f>$B$18 &amp; "\" &amp; $B$21</f>
-        <v>Data\Temp\Report-{TaxID}-{Year}-{Month}.csv</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B27" s="10" t="str">
-        <f>$B$17 &amp; "\" &amp; $B$22</f>
-        <v>Data\Output\Yearly-Report-{Year}-{TaxID}.xlsx</v>
+        <f>$B$19 &amp; "\" &amp; $B$22</f>
+        <v>Data\Temp\Report-{TaxID}-{Year}-{Month}.csv</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="B28" s="10" t="str">
-        <f>$B$16 &amp; "\" &amp; $B$23</f>
-        <v>Data\Input\KS_Vendor_Information_Template.xlsx</v>
+        <f>$B$18 &amp; "\" &amp; $B$23</f>
+        <v>Data\Output\Yearly-Report-{Year}-{TaxID}.xlsx</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="4" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="B29" s="10" t="str">
         <f>$B$17 &amp; "\" &amp; $B$24</f>
+        <v>Data\Input\KS_Vendor_Information_Template.xlsx</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="10" t="str">
+        <f>$B$18 &amp; "\" &amp; $B$25</f>
         <v>Data\Output\KS Vendor Information {Year} Yearly Report.xlsx</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B37" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1537,7 +1548,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>151</v>
@@ -1933,7 +1944,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
